--- a/DMSNewVSale_2025-12-15_19-02.xlsx
+++ b/DMSNewVSale_2025-12-15_19-02.xlsx
@@ -59,6 +59,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALEJON MOISTURIZING CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>AMARYL 1MG 30 TAB</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
     <t>105.0000</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>BISOCARD 5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -117,9 +126,6 @@
   </si>
   <si>
     <t>BRIMILLERGY 0.025% EYE DROPS</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>22.00</t>
@@ -1544,18 +1550,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1588,7 +1594,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1597,14 +1603,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1614,14 +1620,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1630,14 +1636,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1654,7 +1660,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1670,7 +1676,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1703,21 +1709,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>15</v>
@@ -1729,31 +1735,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1762,31 +1768,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1795,28 +1801,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>15</v>
@@ -1828,14 +1834,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1845,14 +1851,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1861,14 +1867,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1878,14 +1884,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1894,14 +1900,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1911,14 +1917,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1927,14 +1933,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1944,14 +1950,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1960,14 +1966,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1977,14 +1983,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1993,14 +1999,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2010,14 +2016,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2026,14 +2032,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2043,14 +2049,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2059,14 +2065,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2076,14 +2082,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2092,14 +2098,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2109,14 +2115,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2125,14 +2131,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2142,14 +2148,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2158,14 +2164,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2175,14 +2181,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2191,14 +2197,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2208,14 +2214,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2224,14 +2230,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2241,14 +2247,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2264,7 +2270,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2278,10 +2284,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2290,14 +2296,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2307,11 +2313,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>15</v>
@@ -2323,14 +2329,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2340,11 +2346,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>15</v>
@@ -2356,14 +2362,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2373,14 +2379,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2389,14 +2395,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2406,14 +2412,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2422,14 +2428,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2439,11 +2445,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>15</v>
@@ -2455,14 +2461,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2472,11 +2478,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>15</v>
@@ -2488,14 +2494,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2505,14 +2511,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2521,14 +2527,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2538,14 +2544,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2554,14 +2560,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2571,14 +2577,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2587,14 +2593,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2604,14 +2610,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2627,24 +2633,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2653,31 +2659,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2686,14 +2692,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2703,14 +2709,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2719,14 +2725,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2736,14 +2742,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2759,7 +2765,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2773,7 +2779,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>15</v>
@@ -2785,31 +2791,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2825,24 +2831,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2858,7 +2864,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2868,14 +2874,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2884,14 +2890,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2917,14 +2923,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2938,10 +2944,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2950,31 +2956,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2983,31 +2989,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3016,14 +3022,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3049,14 +3055,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3066,14 +3072,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3082,14 +3088,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3099,14 +3105,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3115,14 +3121,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3132,14 +3138,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3155,7 +3161,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3165,11 +3171,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>15</v>
@@ -3188,7 +3194,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3198,11 +3204,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>15</v>
@@ -3214,14 +3220,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3231,11 +3237,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>15</v>
@@ -3247,14 +3253,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3264,14 +3270,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3280,14 +3286,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3297,14 +3303,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3313,28 +3319,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>15</v>
@@ -3346,31 +3352,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3379,14 +3385,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3396,14 +3402,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3412,7 +3418,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3425,18 +3431,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3445,31 +3451,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3478,14 +3484,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3495,14 +3501,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3511,14 +3517,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3528,14 +3534,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3544,14 +3550,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3561,14 +3567,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3577,14 +3583,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3594,14 +3600,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3617,21 +3623,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3643,28 +3649,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>15</v>
@@ -3676,28 +3682,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>15</v>
@@ -3709,14 +3715,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3726,14 +3732,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3742,31 +3748,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3775,31 +3781,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3808,31 +3814,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3841,14 +3847,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3858,11 +3864,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>15</v>
@@ -3874,14 +3880,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3914,7 +3920,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3924,14 +3930,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3940,14 +3946,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3957,14 +3963,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3980,24 +3986,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4006,28 +4012,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4039,14 +4045,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4056,11 +4062,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>15</v>
@@ -4072,31 +4078,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4105,31 +4111,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>15</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4138,28 +4144,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>15</v>
@@ -4171,28 +4177,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>15</v>
@@ -4211,24 +4217,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4237,31 +4243,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4277,13 +4283,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4291,10 +4297,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4303,31 +4309,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4336,28 +4342,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>15</v>
@@ -4376,24 +4382,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4409,24 +4415,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4435,28 +4441,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>15</v>
@@ -4468,68 +4474,101 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>280</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" ht="25.5" customHeight="1">
-      <c r="N98" s="13">
-        <v>7617.5150000000003</v>
-      </c>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>126</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>18</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>281</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>282</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c t="s" r="Q98" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" ht="26.25" customHeight="1">
+      <c r="N99" s="13">
+        <v>7827.5150000000003</v>
+      </c>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>283</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>284</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>285</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4993,10 +5032,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
